--- a/2021/11/观澜富士康项目/富士康入厂资料-1110/廠商門禁權限申請模板.xlsx
+++ b/2021/11/观澜富士康项目/富士康入厂资料-1110/廠商門禁權限申請模板.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\归档\2021\11\观澜富士康项目\富士康入厂资料-1110\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A2D1E-BD3E-4F6F-9292-307EFB5AA3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66F1B04-D812-48EE-929C-09EC3815A79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="173">
   <si>
     <t>非集團員工開通一線人臉門禁提報表</t>
   </si>
@@ -747,6 +747,95 @@
   <si>
     <t>SM00409</t>
     <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮吉中</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30223199108150016</t>
+    </r>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3651490634</t>
+    </r>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM0621</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>高铁</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6140</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海-深圳</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>自住</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安区西乡街道渔业社区轻铁西15巷6号</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：30~6:31</t>
+  </si>
+  <si>
+    <t>9：30~6:30</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳思谋信息科技有限公司</t>
+    <phoneticPr fontId="56" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮吉中</t>
+    <phoneticPr fontId="56" type="noConversion"/>
+  </si>
+  <si>
+    <t>430223199108150016</t>
+    <phoneticPr fontId="56" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1876,7 +1965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2123,6 +2212,117 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="28" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="28" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="2" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="59" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="20" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2183,171 +2383,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="28" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="28" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="28" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="2" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="59" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="20" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="标题 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="标题 5" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="差 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="标题 1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="标题 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="标题 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="标题 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="标题 5" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="差 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="常规 17" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="常规 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="常规 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="常规 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="常规 2 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="常规 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="常规 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 3 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="常规 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="常规 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 7" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="好 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="汇总 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="计算 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="检查单元格 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="解释性文本 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="警告文本 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="链接单元格 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="适中 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="输出 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="输入 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="一般 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="一般 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="一般 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 10" xfId="31" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 17" xfId="32" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 2 4" xfId="36" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 3 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 7" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="好 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="汇总 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="计算 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="检查单元格 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="解释性文本 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="警告文本 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="链接单元格 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="适中 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="输出 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="输入 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="一般 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="一般 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="一般 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="注释 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2459,50 +2554,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>148771</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2020067</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>460</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFA6CE1-76F9-4D49-8CBC-53CF7D9CE853}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10077631" y="7695837"/>
-          <a:ext cx="1871296" cy="3372673"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>544286</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2519,7 +2570,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09B4472-25FB-4B99-A13C-88B2C018F2B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2563,7 +2614,7 @@
         <xdr:cNvPr id="8" name="图片 5" descr="Screenshot_20211111_152553_com.tencent.mm">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15ADB8EC-81D4-445A-BAF5-899F17DD582F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2623,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2637,7 +2688,7 @@
         <xdr:cNvPr id="9" name="图片 6" descr="Screenshot_20211111_152619_com.tencent.mm">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C69E75D-2845-4F46-91BE-1F849F1A1922}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2697,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2711,7 +2762,7 @@
         <xdr:cNvPr id="10" name="图片 7" descr="e5d0a9d6-2027-4e47-a721-d1c3a5473d93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00D99FA-D693-4101-8DD3-EFA2409B07AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2771,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2785,7 +2836,7 @@
         <xdr:cNvPr id="11" name="图片 8" descr="d514b65d-1c39-4d7c-bf6c-6a4635405c20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6534F4E4-1625-48EF-A7FA-8B490504CEC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2835,6 +2886,155 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>462644</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2036160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3057296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525251" y="14763750"/>
+          <a:ext cx="1573516" cy="2798760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>748394</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>284598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2299607</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3043690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8341180" y="14789812"/>
+          <a:ext cx="1551213" cy="2759092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520930</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1927401</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3309256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A526A9-EA9A-4BF4-956C-BD2D16C5F6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10448701" y="11321142"/>
+          <a:ext cx="1406471" cy="3080657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2908,7 +3108,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0DB3A3-EB32-4702-8667-F182A576F6E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +3152,7 @@
         <xdr:cNvPr id="5" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9D22F5-CD8A-4FFB-91CE-C016B79FABD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3226,7 @@
         <xdr:cNvPr id="6" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FEBF378-42B9-491F-ADBC-2B246F6131D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,7 +3235,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3078,6 +3278,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>20956</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>421005</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>143812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16068676" y="207402"/>
+          <a:ext cx="2868929" cy="3959770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3128,7 +3372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3161,9 +3405,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3196,6 +3457,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3377,8 +3655,8 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="27" customHeight="1"/>
@@ -3407,26 +3685,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
     </row>
     <row r="2" spans="1:19" s="45" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="51"/>
@@ -3449,37 +3727,37 @@
       <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:19" s="46" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:19" s="46" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" ht="116.25" customHeight="1">
       <c r="A5" s="53" t="s">
@@ -3548,7 +3826,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="97" t="s">
         <v>107</v>
       </c>
       <c r="F6" s="59"/>
@@ -3587,171 +3865,199 @@
       <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:19" s="48" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A7" s="102">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="117" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108" t="s">
+      <c r="I7" s="84"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="109" t="s">
+      <c r="L7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="89" t="s">
         <v>26</v>
       </c>
       <c r="S7" s="45"/>
     </row>
     <row r="8" spans="1:19" s="48" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A8" s="102">
+      <c r="A8" s="82">
         <v>3</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="117" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108" t="s">
+      <c r="I8" s="84"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="109" t="s">
+      <c r="L8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="89" t="s">
         <v>26</v>
       </c>
       <c r="S8" s="45"/>
     </row>
-    <row r="9" spans="1:19" s="116" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A9" s="102">
+    <row r="9" spans="1:19" s="96" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A9" s="82">
         <v>4</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="117" t="s">
+      <c r="D9" s="91"/>
+      <c r="E9" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="H9" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="111"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="115" t="s">
+      <c r="I9" s="91"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="113" t="s">
+      <c r="L9" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="113" t="s">
+      <c r="M9" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="113" t="s">
+      <c r="N9" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="113" t="s">
+      <c r="O9" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="P9" s="113" t="s">
+      <c r="P9" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="113" t="s">
+      <c r="Q9" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="R9" s="109" t="s">
+      <c r="R9" s="89" t="s">
         <v>126</v>
       </c>
       <c r="S9" s="45"/>
     </row>
     <row r="10" spans="1:19" s="48" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="82">
+        <v>5</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>157</v>
+      </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="117" t="s">
+        <v>158</v>
+      </c>
       <c r="F10" s="59"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="111" t="s">
+        <v>160</v>
+      </c>
       <c r="I10" s="33"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
+      <c r="K10" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="R10" s="89" t="s">
+        <v>126</v>
+      </c>
       <c r="S10" s="45"/>
     </row>
     <row r="11" spans="1:19" s="48" customFormat="1" ht="42.75" customHeight="1">
@@ -3797,48 +4103,48 @@
       <c r="S12" s="79"/>
     </row>
     <row r="13" spans="1:19" s="45" customFormat="1" ht="74.099999999999994" customHeight="1">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="123"/>
     </row>
     <row r="14" spans="1:19" s="45" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3850,11 +4156,11 @@
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F6:J6 B6:B7 IX7 ST7 ACP7 AML7 AWH7 BGD7 BPZ7 BZV7 CJR7 CTN7 DDJ7 DNF7 DXB7 EGX7 EQT7 FAP7 FKL7 FUH7 GED7 GNZ7 GXV7 HHR7 HRN7 IBJ7 ILF7 IVB7 JEX7 JOT7 JYP7 KIL7 KSH7 LCD7 LLZ7 LVV7 MFR7 MPN7 MZJ7 NJF7 NTB7 OCX7 OMT7 OWP7 PGL7 PQH7 QAD7 QJZ7 QTV7 RDR7 RNN7 RXJ7 SHF7 SRB7 TAX7 TKT7 TUP7 UEL7 UOH7 UYD7 VHZ7 VRV7 WBR7 WLN7 WVJ7 B9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8 JB7:JB8 SX7:SX8 ACT7:ACT8 AMP7:AMP8 AWL7:AWL8 BGH7:BGH8 BQD7:BQD8 BZZ7:BZZ8 CJV7:CJV8 CTR7:CTR8 DDN7:DDN8 DNJ7:DNJ8 DXF7:DXF8 EHB7:EHB8 EQX7:EQX8 FAT7:FAT8 FKP7:FKP8 FUL7:FUL8 GEH7:GEH8 GOD7:GOD8 GXZ7:GXZ8 HHV7:HHV8 HRR7:HRR8 IBN7:IBN8 ILJ7:ILJ8 IVF7:IVF8 JFB7:JFB8 JOX7:JOX8 JYT7:JYT8 KIP7:KIP8 KSL7:KSL8 LCH7:LCH8 LMD7:LMD8 LVZ7:LVZ8 MFV7:MFV8 MPR7:MPR8 MZN7:MZN8 NJJ7:NJJ8 NTF7:NTF8 ODB7:ODB8 OMX7:OMX8 OWT7:OWT8 PGP7:PGP8 PQL7:PQL8 QAH7:QAH8 QKD7:QKD8 QTZ7:QTZ8 RDV7:RDV8 RNR7:RNR8 RXN7:RXN8 SHJ7:SHJ8 SRF7:SRF8 TBB7:TBB8 TKX7:TKX8 TUT7:TUT8 UEP7:UEP8 UOL7:UOL8 UYH7:UYH8 VID7:VID8 VRZ7:VRZ8 WBV7:WBV8 WLR7:WLR8 WVN7:WVN8" xr:uid="{E5144004-95A3-40A4-8273-12315E3FCEC7}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F6:J6 B6:B7 IX7 ST7 ACP7 AML7 AWH7 BGD7 BPZ7 BZV7 CJR7 CTN7 DDJ7 DNF7 DXB7 EGX7 EQT7 FAP7 FKL7 FUH7 GED7 GNZ7 GXV7 HHR7 HRN7 IBJ7 ILF7 IVB7 JEX7 JOT7 JYP7 KIL7 KSH7 LCD7 LLZ7 LVV7 MFR7 MPN7 MZJ7 NJF7 NTB7 OCX7 OMT7 OWP7 PGL7 PQH7 QAD7 QJZ7 QTV7 RDR7 RNN7 RXJ7 SHF7 SRB7 TAX7 TKT7 TUP7 UEL7 UOH7 UYD7 VHZ7 VRV7 WBR7 WLN7 WVJ7 B9:B10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8 JB7:JB8 SX7:SX8 ACT7:ACT8 AMP7:AMP8 AWL7:AWL8 BGH7:BGH8 BQD7:BQD8 BZZ7:BZZ8 CJV7:CJV8 CTR7:CTR8 DDN7:DDN8 DNJ7:DNJ8 DXF7:DXF8 EHB7:EHB8 EQX7:EQX8 FAT7:FAT8 FKP7:FKP8 FUL7:FUL8 GEH7:GEH8 GOD7:GOD8 GXZ7:GXZ8 HHV7:HHV8 HRR7:HRR8 IBN7:IBN8 ILJ7:ILJ8 IVF7:IVF8 JFB7:JFB8 JOX7:JOX8 JYT7:JYT8 KIP7:KIP8 KSL7:KSL8 LCH7:LCH8 LMD7:LMD8 LVZ7:LVZ8 MFV7:MFV8 MPR7:MPR8 MZN7:MZN8 NJJ7:NJJ8 NTF7:NTF8 ODB7:ODB8 OMX7:OMX8 OWT7:OWT8 PGP7:PGP8 PQL7:PQL8 QAH7:QAH8 QKD7:QKD8 QTZ7:QTZ8 RDV7:RDV8 RNR7:RNR8 RXN7:RXN8 SHJ7:SHJ8 SRF7:SRF8 TBB7:TBB8 TKX7:TKX8 TUT7:TUT8 UEP7:UEP8 UOL7:UOL8 UYH7:UYH8 VID7:VID8 VRZ7:VRZ8 WBV7:WBV8 WLR7:WLR8 WVN7:WVN8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9" xr:uid="{700A007A-240B-45C3-9340-D664050BC84A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3872,7 +4178,7 @@
   <dimension ref="A1:CB10"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3947,24 +4253,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" ht="37.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="44"/>
       <c r="S1" s="44"/>
@@ -4031,146 +4337,146 @@
       <c r="CB1" s="44"/>
     </row>
     <row r="2" spans="1:80" s="35" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91" t="s">
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91" t="s">
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91" t="s">
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91" t="s">
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91" t="s">
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91" t="s">
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="88" t="s">
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="88" t="s">
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="90"/>
-      <c r="BD2" s="88" t="s">
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="90"/>
-      <c r="BI2" s="88" t="s">
+      <c r="BE2" s="126"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="127"/>
+      <c r="BI2" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="89"/>
-      <c r="BM2" s="90"/>
-      <c r="BN2" s="88" t="s">
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="127"/>
+      <c r="BN2" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="89"/>
-      <c r="BQ2" s="89"/>
-      <c r="BR2" s="90"/>
-      <c r="BS2" s="88" t="s">
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="127"/>
+      <c r="BS2" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="BT2" s="89"/>
-      <c r="BU2" s="89"/>
-      <c r="BV2" s="89"/>
-      <c r="BW2" s="90"/>
-      <c r="BX2" s="88" t="s">
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="126"/>
+      <c r="BV2" s="126"/>
+      <c r="BW2" s="127"/>
+      <c r="BX2" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="BY2" s="89"/>
-      <c r="BZ2" s="89"/>
-      <c r="CA2" s="89"/>
-      <c r="CB2" s="90"/>
+      <c r="BY2" s="126"/>
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="127"/>
     </row>
     <row r="3" spans="1:80" s="35" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
       <c r="K3" s="43" t="s">
         <v>53</v>
       </c>
@@ -4624,811 +4930,971 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:80" s="136" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A5" s="133">
+    <row r="5" spans="1:80" s="116" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A5" s="113">
         <v>2</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="113">
         <v>15218675909</v>
       </c>
-      <c r="E5" s="135" t="s">
+      <c r="E5" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="133" t="s">
+      <c r="K5" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="133" t="s">
+      <c r="L5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="M5" s="133" t="s">
+      <c r="M5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="133" t="s">
+      <c r="N5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="133" t="s">
+      <c r="P5" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="Q5" s="133" t="s">
+      <c r="Q5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="133" t="s">
+      <c r="R5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="133" t="s">
+      <c r="S5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="133" t="s">
+      <c r="U5" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="133" t="s">
+      <c r="V5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="W5" s="133" t="s">
+      <c r="W5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="X5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="133" t="s">
+      <c r="X5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="Z5" s="133" t="s">
+      <c r="Z5" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="AA5" s="133" t="s">
+      <c r="AA5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="AB5" s="133" t="s">
+      <c r="AB5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AC5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD5" s="133" t="s">
+      <c r="AC5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="AE5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO5" s="133" t="s">
+      <c r="AE5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO5" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="AP5" s="133" t="s">
+      <c r="AP5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="AQ5" s="133" t="s">
+      <c r="AQ5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AR5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT5" s="133" t="s">
+      <c r="AR5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT5" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AU5" s="133" t="s">
+      <c r="AU5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="AV5" s="133" t="s">
+      <c r="AV5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AW5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX5" s="133" t="s">
+      <c r="AW5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="AY5" s="133" t="s">
+      <c r="AY5" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AZ5" s="133" t="s">
+      <c r="AZ5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="BA5" s="133" t="s">
+      <c r="BA5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BB5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC5" s="133" t="s">
+      <c r="BB5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BD5" s="133" t="s">
+      <c r="BD5" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="BE5" s="133" t="s">
+      <c r="BE5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="BF5" s="133" t="s">
+      <c r="BF5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BG5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH5" s="133" t="s">
+      <c r="BG5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BI5" s="133" t="s">
+      <c r="BI5" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="BJ5" s="133" t="s">
+      <c r="BJ5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="BK5" s="133" t="s">
+      <c r="BK5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BL5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM5" s="133" t="s">
+      <c r="BL5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BN5" s="133" t="s">
+      <c r="BN5" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="BO5" s="133" t="s">
+      <c r="BO5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="BP5" s="133" t="s">
+      <c r="BP5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BQ5" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BR5" s="133" t="s">
+      <c r="BQ5" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BS5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BU5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW5" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX5" s="134" t="s">
+      <c r="BS5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW5" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX5" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="BY5" s="134" t="s">
+      <c r="BY5" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="BZ5" s="134" t="s">
+      <c r="BZ5" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="CA5" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="CB5" s="134" t="s">
+      <c r="CA5" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB5" s="114" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:80" s="136" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A6" s="133">
+    <row r="6" spans="1:80" s="116" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A6" s="113">
         <v>3</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="113">
         <v>13266562693</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="135" t="s">
+      <c r="F6" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="133" t="s">
+      <c r="I6" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="L6" s="133" t="s">
+      <c r="L6" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="M6" s="133" t="s">
+      <c r="M6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="133" t="s">
+      <c r="N6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="133" t="s">
+      <c r="P6" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="133" t="s">
+      <c r="Q6" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="R6" s="133" t="s">
+      <c r="R6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" s="133" t="s">
+      <c r="S6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="133" t="s">
+      <c r="U6" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="V6" s="133" t="s">
+      <c r="V6" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="W6" s="133" t="s">
+      <c r="W6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="X6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" s="133" t="s">
+      <c r="X6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="Z6" s="133" t="s">
+      <c r="Z6" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AA6" s="133" t="s">
+      <c r="AA6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="AB6" s="133" t="s">
+      <c r="AB6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AC6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD6" s="133" t="s">
+      <c r="AC6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO6" s="133" t="s">
+      <c r="AE6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO6" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AP6" s="133" t="s">
+      <c r="AP6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="AQ6" s="133" t="s">
+      <c r="AQ6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AR6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT6" s="133" t="s">
+      <c r="AR6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT6" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AU6" s="133" t="s">
+      <c r="AU6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="AV6" s="133" t="s">
+      <c r="AV6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="AW6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX6" s="133" t="s">
+      <c r="AW6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="AY6" s="133" t="s">
+      <c r="AY6" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AZ6" s="133" t="s">
+      <c r="AZ6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="BA6" s="133" t="s">
+      <c r="BA6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BB6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC6" s="133" t="s">
+      <c r="BB6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BD6" s="133" t="s">
+      <c r="BD6" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="BE6" s="133" t="s">
+      <c r="BE6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="BF6" s="133" t="s">
+      <c r="BF6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BG6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH6" s="133" t="s">
+      <c r="BG6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BI6" s="133" t="s">
+      <c r="BI6" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="BJ6" s="133" t="s">
+      <c r="BJ6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="BK6" s="133" t="s">
+      <c r="BK6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BL6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM6" s="133" t="s">
+      <c r="BL6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BN6" s="133" t="s">
+      <c r="BN6" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="BO6" s="133" t="s">
+      <c r="BO6" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="BP6" s="133" t="s">
+      <c r="BP6" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="BQ6" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="BR6" s="133" t="s">
+      <c r="BQ6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="BS6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BU6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW6" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX6" s="134" t="s">
+      <c r="BS6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW6" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX6" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="BY6" s="134" t="s">
+      <c r="BY6" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="BZ6" s="134" t="s">
+      <c r="BZ6" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="CA6" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="CB6" s="134" t="s">
+      <c r="CA6" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB6" s="114" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:80" s="122" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="119">
+    <row r="7" spans="1:80" s="102" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A7" s="99">
         <v>4</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="99">
         <v>15989271636</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121" t="s">
+      <c r="G7" s="101"/>
+      <c r="H7" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="119" t="s">
+      <c r="K7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="L7" s="119" t="s">
+      <c r="L7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="119" t="s">
+      <c r="N7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="119" t="s">
+      <c r="P7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="Q7" s="119" t="s">
+      <c r="Q7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="119" t="s">
+      <c r="R7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="119" t="s">
+      <c r="S7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="119" t="s">
+      <c r="U7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="V7" s="119" t="s">
+      <c r="V7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="W7" s="119" t="s">
+      <c r="W7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="119" t="s">
+      <c r="X7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ7" s="119" t="s">
+      <c r="Z7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="AK7" s="119" t="s">
+      <c r="AK7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="AL7" s="119" t="s">
+      <c r="AL7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="AM7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN7" s="119" t="s">
+      <c r="AM7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="AO7" s="119" t="s">
+      <c r="AO7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="AP7" s="119" t="s">
+      <c r="AP7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="AQ7" s="119" t="s">
+      <c r="AQ7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="AR7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS7" s="119" t="s">
+      <c r="AR7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="AT7" s="119" t="s">
+      <c r="AT7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="AU7" s="119" t="s">
+      <c r="AU7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="AV7" s="119" t="s">
+      <c r="AV7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="AW7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX7" s="119" t="s">
+      <c r="AW7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="AY7" s="119" t="s">
+      <c r="AY7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="AZ7" s="119" t="s">
+      <c r="AZ7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="BA7" s="119" t="s">
+      <c r="BA7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="BB7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC7" s="119" t="s">
+      <c r="BB7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="BD7" s="119" t="s">
+      <c r="BD7" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="BE7" s="119" t="s">
+      <c r="BE7" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="BF7" s="119" t="s">
+      <c r="BF7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="BG7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH7" s="119" t="s">
+      <c r="BG7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="BI7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR7" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="BS7" s="119" t="s">
+      <c r="BI7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR7" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="BT7" s="119" t="s">
+      <c r="BT7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="BU7" s="119" t="s">
+      <c r="BU7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="BV7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW7" s="119" t="s">
+      <c r="BV7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="BX7" s="119" t="s">
+      <c r="BX7" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="BY7" s="119" t="s">
+      <c r="BY7" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="BZ7" s="119" t="s">
+      <c r="BZ7" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="CA7" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="CB7" s="119" t="s">
+      <c r="CA7" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB7" s="99" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:80" s="36" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="39"/>
-      <c r="AZ8" s="39"/>
-      <c r="BA8" s="39"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
-      <c r="BF8" s="39"/>
-      <c r="BG8" s="39"/>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="39"/>
-      <c r="BJ8" s="39"/>
-      <c r="BK8" s="39"/>
-      <c r="BL8" s="39"/>
-      <c r="BM8" s="39"/>
-      <c r="BN8" s="39"/>
-      <c r="BO8" s="39"/>
-      <c r="BP8" s="39"/>
-      <c r="BQ8" s="39"/>
-      <c r="BR8" s="39"/>
-      <c r="BS8" s="39"/>
-      <c r="BT8" s="39"/>
-      <c r="BU8" s="39"/>
-      <c r="BV8" s="39"/>
-      <c r="BW8" s="39"/>
-      <c r="BX8" s="40"/>
-      <c r="BY8" s="40"/>
-      <c r="BZ8" s="40"/>
-      <c r="CA8" s="40"/>
-      <c r="CB8" s="40"/>
+      <c r="A8" s="39">
+        <v>5</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="39">
+        <v>13651490634</v>
+      </c>
+      <c r="E8" s="41">
+        <v>44469</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="V8" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="W8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB8" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG8" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH8" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI8" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO8" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP8" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ8" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS8" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT8" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU8" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX8" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY8" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ8" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC8" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD8" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE8" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH8" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI8" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ8" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK8" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL8" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM8" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN8" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO8" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP8" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ8" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR8" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW8" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX8" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="BY8" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ8" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="CA8" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB8" s="99" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:80" ht="42" customHeight="1"/>
     <row r="10" spans="1:80" s="37" customFormat="1" ht="30.75" customHeight="1">
@@ -5488,11 +5954,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="51" customHeight="1"/>
@@ -5562,17 +6028,17 @@
       <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="130" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="112" t="s">
         <v>116</v>
       </c>
       <c r="G3" s="34"/>
@@ -5582,45 +6048,64 @@
       <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="130" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="112" t="s">
         <v>118</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="268.8" customHeight="1">
-      <c r="A5" s="124">
+    <row r="5" spans="1:8" customFormat="1" ht="268.95" customHeight="1">
+      <c r="A5" s="104">
         <v>4</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="120" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="127">
+      <c r="E5" s="107">
         <v>15989271636</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="123"/>
+      <c r="G5" s="109"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="268.95" customHeight="1">
+      <c r="A6" s="104">
+        <v>5</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="107">
+        <v>13651490634</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="109"/>
+      <c r="H6" s="103"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="54" type="noConversion"/>
-  <dataValidations count="1">
+  <phoneticPr fontId="56" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:B4 IX3:IX4 ST3:ST4 ACP3:ACP4 AML3:AML4 AWH3:AWH4 BGD3:BGD4 BPZ3:BPZ4 BZV3:BZV4 CJR3:CJR4 CTN3:CTN4 DDJ3:DDJ4 DNF3:DNF4 DXB3:DXB4 EGX3:EGX4 EQT3:EQT4 FAP3:FAP4 FKL3:FKL4 FUH3:FUH4 GED3:GED4 GNZ3:GNZ4 GXV3:GXV4 HHR3:HHR4 HRN3:HRN4 IBJ3:IBJ4 ILF3:ILF4 IVB3:IVB4 JEX3:JEX4 JOT3:JOT4 JYP3:JYP4 KIL3:KIL4 KSH3:KSH4 LCD3:LCD4 LLZ3:LLZ4 LVV3:LVV4 MFR3:MFR4 MPN3:MPN4 MZJ3:MZJ4 NJF3:NJF4 NTB3:NTB4 OCX3:OCX4 OMT3:OMT4 OWP3:OWP4 PGL3:PGL4 PQH3:PQH4 QAD3:QAD4 QJZ3:QJZ4 QTV3:QTV4 RDR3:RDR4 RNN3:RNN4 RXJ3:RXJ4 SHF3:SHF4 SRB3:SRB4 TAX3:TAX4 TKT3:TKT4 TUP3:TUP4 UEL3:UEL4 UOH3:UOH4 UYD3:UYD4 VHZ3:VHZ4 VRV3:VRV4 WBR3:WBR4 WLN3:WLN4 WVJ3:WVJ4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5661,25 +6146,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -5703,46 +6188,46 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
     </row>
     <row r="5" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="6" spans="1:19" s="3" customFormat="1" ht="134.4">
@@ -5916,47 +6401,47 @@
       <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:19" ht="122.25" customHeight="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
     </row>
     <row r="14" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="15" spans="1:19" s="5" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5986,15 +6471,15 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39994506668294322"/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6005,20 +6490,26 @@
       <c r="I1">
         <v>2</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="98" t="s">
         <v>129</v>
       </c>
       <c r="O1">
         <v>3</v>
       </c>
-      <c r="P1" s="118" t="s">
+      <c r="P1" s="98" t="s">
         <v>130</v>
       </c>
       <c r="T1">
         <v>4</v>
       </c>
-      <c r="U1" s="118" t="s">
+      <c r="U1" s="98" t="s">
         <v>128</v>
+      </c>
+      <c r="Z1">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="98" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
